--- a/biology/Botanique/Chrysosplenium/Chrysosplenium.xlsx
+++ b/biology/Botanique/Chrysosplenium/Chrysosplenium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysosplenium est un genre de plantes herbacées rampantes et vivaces, appartenant à la famille des Saxifragaceae.
-Il compte environ 65 espèces réparties en Asie, Amérique[1], Afrique et Europe. Certaines sont des endémiques à faible diversité génétique[2].
+Il compte environ 65 espèces réparties en Asie, Amérique, Afrique et Europe. Certaines sont des endémiques à faible diversité génétique.
 Les fleurs souvent jaunes, verdâtres ou blanches sont dépourvues de pétales.
-Plusieurs espèces de ce genre ont fait l'objet d'études particulières (dont de mise en culture[3]) en raison de leur teneur en flavonoïdes (résumé et extrait[4]). Ce genre pourrait avoir un intérêt médical, pour la lutte contre les cancers notamment[5]. Chrysosplenium grayanum Maxim. sécrète une molécule toxique (acide béta-peltoboykinolique). Cette molécule cytotoxique semble présenter une activité antitumorale[6] (testée contre des lignées de cellules cancéreuses humaines).
+Plusieurs espèces de ce genre ont fait l'objet d'études particulières (dont de mise en culture) en raison de leur teneur en flavonoïdes (résumé et extrait). Ce genre pourrait avoir un intérêt médical, pour la lutte contre les cancers notamment. Chrysosplenium grayanum Maxim. sécrète une molécule toxique (acide béta-peltoboykinolique). Cette molécule cytotoxique semble présenter une activité antitumorale (testée contre des lignées de cellules cancéreuses humaines).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chrysosplenium absconditicapsulum
 Chrysosplenium alpinum (alpine golden saxifrage)
